--- a/similarities/split_global/harmonic_similarity_timestamps_283.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_283.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,338 +484,344 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']]</t>
+          <t>['G/5', 'C/9', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min'], ['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:27.820000', '0:00:37.720000'), ('0:00:32.700000', '0:00:40.640000')]</t>
+          <t>('0:00:00.727609', '0:00:10.723990')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:38.840000', '0:01:56.600000'), ('0:00:14.060000', '0:00:43.980000')]</t>
+          <t>('0:02:03.030000', '0:02:09.590000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=27.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=32.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=98.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=14.06']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G/3']]</t>
+          <t>['C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:07.020000', '0:00:13.980000')]</t>
+          <t>('0:01:14.800000', '0:01:17.300000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:15.565442', '0:00:19.466394')]</t>
+          <t>('0:00:10.598321', '0:00:14.743083')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=7.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=74.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=15.565442']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=10.598321</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A#', 'A#/F', 'F:7', 'A#']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:22.180000', '0:00:25.400000')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:04:29.700000', '0:04:38.420000')]</t>
+          <t>('0:01:19.420000', '0:01:26.020000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=22.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=269.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:23.020000', '0:00:32.580000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:22.520000')]</t>
+          <t>('0:01:08.820000', '0:01:17.920000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=23.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=7.4']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>isophonics_125</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['A:7/3', 'G/3', 'G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:7/C', 'C', 'C/G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:01:07.905000', '0:01:12.107811')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:04:39.460000', '0:04:43.980000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-125#t=67.905</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=279.46</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['Bb', 'Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:03:26.500000', '0:03:29.360000')]</t>
+          <t>('0:01:00.761383', '0:01:11.001383')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:03.292358', '0:01:10.397664')]</t>
+          <t>('0:02:34.760000', '0:02:40.980000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=206.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=63.292358']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:00:03.320000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:30.900000')]</t>
+          <t>('0:02:14.220000', '0:02:19.560000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -824,370 +830,408 @@
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:30.920000', '0:01:40.480000')]</t>
+          <t>('0:00:23.260000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:37.540000', '0:00:45.380000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=90.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>isophonics_257</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3'], ['Bb:min', 'F:7', 'Bb:min'], ['Ab', 'Eb:7', 'Ab'], ['Eb:7', 'Ab', 'Ab:7']]</t>
+          <t>['C#:maj/G#', 'F#:maj', 'C#:maj/G#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['F:min/C', 'C:7', 'F:min'], ['D#:maj/A#', 'A#:7', 'D#:maj'], ['A#:7', 'D#:maj', 'D#:7']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:06.840000'), ('0:00:43.680000', '0:00:44.980000'), ('0:00:46.750000', '0:00:47.790000'), ('0:00:14.910000', '0:00:20.600000')]</t>
+          <t>('0:00:35.040000', '0:00:36.980000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:19.480000', '0:00:31.260000'), ('0:00:57.240000', '0:01:06.860000'), ('0:01:19.980000', '0:01:33.600000'), ('0:01:20.480000', '0:01:37.020000')]</t>
+          <t>('0:00:55.943242', '0:01:05.045464')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=43.68', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=35.04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=19.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=57.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=80.48']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=55.943242</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:12.340000', '0:00:41.740000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:44.820000', '0:00:54.960000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=12.34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=44.82</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:28.020000', '0:00:30.100000')]</t>
+          <t>('0:01:06.930000', '0:01:40.770000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:34.380000', '0:00:38.520000')]</t>
+          <t>('0:02:01.740000', '0:02:06.500000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=121.74</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['A', 'D', 'F#:min/5', 'B:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>['C', 'F:maj', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:03.840000', '0:01:06.800000')]</t>
+          <t>('0:00:10.861700', '0:00:20.080022')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:07.840000'), ('0:00:23.940000', '0:00:31.160000')]</t>
+          <t>('0:01:58.227000', '0:02:18.210000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=10.8617</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=23.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=118.227</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:09.780000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Eb:7/#5', 'Ab', 'F:min7']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:7/F#', 'G:maj', 'E:min7/G']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:02.624000', '0:00:06.624000')]</t>
+          <t>('0:01:05.760000', '0:01:11.700000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:06.340000', '0:01:09.900000')]</t>
+          <t>('0:00:09.660000', '0:00:10.950000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-234#t=2.624']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.76</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=66.34']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
